--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="28">
   <si>
     <t>Grade</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Sam Billmore</t>
   </si>
   <si>
-    <t>Stuart Charman</t>
+    <t>Stewart Charman</t>
   </si>
   <si>
     <t>10/02/2018</t>
@@ -104,9 +104,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -159,12 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +723,8 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
-        <v>43141</v>
+      <c r="C19" t="s">
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -741,8 +737,8 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2">
-        <v>43142</v>
+      <c r="C20" t="s">
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -755,8 +751,8 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
-        <v>43148</v>
+      <c r="C21" t="s">
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8F48ACC7549A67DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{272EF806-D0B4-477D-8ED2-3A36EF300F1E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_availability" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="18">
   <si>
     <t>Grade</t>
   </si>
@@ -37,12 +43,12 @@
     <t>Trainee</t>
   </si>
   <si>
-    <t>Geoff Gauntlett</t>
-  </si>
-  <si>
     <t>James Newby</t>
   </si>
   <si>
+    <t>John Bancroft</t>
+  </si>
+  <si>
     <t>John Travis</t>
   </si>
   <si>
@@ -65,36 +71,6 @@
   </si>
   <si>
     <t>Stewart Charman</t>
-  </si>
-  <si>
-    <t>10/02/2018</t>
-  </si>
-  <si>
-    <t>11/02/2018</t>
-  </si>
-  <si>
-    <t>14/02/2018</t>
-  </si>
-  <si>
-    <t>15/02/2018</t>
-  </si>
-  <si>
-    <t>17/02/2018</t>
-  </si>
-  <si>
-    <t>18/02/2018</t>
-  </si>
-  <si>
-    <t>21/02/2018</t>
-  </si>
-  <si>
-    <t>22/02/2018</t>
-  </si>
-  <si>
-    <t>24/02/2018</t>
-  </si>
-  <si>
-    <t>25/02/2018</t>
   </si>
   <si>
     <t>Y</t>
@@ -103,8 +79,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,17 +135,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +233,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +285,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,17 +478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,662 +505,676 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="C2" s="2">
+        <v>43141</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
+      <c r="C3" s="2">
+        <v>43142</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
+      <c r="C4" s="2">
+        <v>43148</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
+      <c r="C5" s="2">
+        <v>43156</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43141</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43142</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43145</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43146</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43148</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43149</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C12" s="2">
+        <v>43152</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
+      <c r="C13" s="2">
+        <v>43153</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="C14" s="2">
+        <v>43155</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
+      <c r="C15" s="2">
+        <v>43156</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="2">
+        <v>43141</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
+      <c r="C17" s="2">
+        <v>43142</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
+      <c r="C18" s="2">
+        <v>43155</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43156</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
+      <c r="C20" s="2">
+        <v>43141</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
+      <c r="C21" s="2">
+        <v>43142</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43148</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
-        <v>20</v>
+      <c r="C23" s="2">
+        <v>43145</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
+      <c r="C24" s="2">
+        <v>43146</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
+      <c r="C25" s="2">
+        <v>43152</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43153</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>18</v>
+      <c r="C27" s="2">
+        <v>43141</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
+      <c r="C28" s="2">
+        <v>43142</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43155</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
+      <c r="C30" s="2">
+        <v>43141</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
+      <c r="C31" s="2">
+        <v>43142</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
-        <v>20</v>
+      <c r="C32" s="2">
+        <v>43145</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>21</v>
+      <c r="C33" s="2">
+        <v>43146</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>22</v>
+      <c r="C34" s="2">
+        <v>43148</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>23</v>
+      <c r="C35" s="2">
+        <v>43149</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
-        <v>24</v>
+      <c r="C36" s="2">
+        <v>43152</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
-        <v>25</v>
+      <c r="C37" s="2">
+        <v>43153</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
-        <v>26</v>
+      <c r="C38" s="2">
+        <v>43155</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43156</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
-        <v>18</v>
+      <c r="C40" s="2">
+        <v>43141</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
-        <v>19</v>
+      <c r="C41" s="2">
+        <v>43142</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
-        <v>20</v>
+      <c r="C42" s="2">
+        <v>43145</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43146</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
+      <c r="C44" s="2">
+        <v>43141</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
-        <v>21</v>
+      <c r="C45" s="2">
+        <v>43142</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43148</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
+      <c r="C47" s="2">
+        <v>43141</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" t="s">
-        <v>21</v>
+      <c r="C48" s="2">
+        <v>43142</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8F48ACC7549A67DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{272EF806-D0B4-477D-8ED2-3A36EF300F1E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8FC4ACC44C2666DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A96F8FB7-DF43-4FA2-A987-6311CAE0655E}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8FC4ACC44C2666DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A96F8FB7-DF43-4FA2-A987-6311CAE0655E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8F0D2CC65D6667DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFFA6F2A-9B89-44CA-9956-2B8E77CC9ABC}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8F0D2CC65D6667DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFFA6F2A-9B89-44CA-9956-2B8E77CC9ABC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_21EF40A4DB376D1FCA6E8FB2D4C35AAE67DE84EA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FB548C0-8893-4BEA-A5CB-F6B86DE86043}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_42F440A46527AF1AB26E8F9D4C4049AA76DE994E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63028B16-014D-49B9-A235-91FC42A6BE7C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_42F440A46527AF1AB26E8F39ACC57E8476DE994E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89A25F2D-10A2-4CC9-B21A-9AFB58375EE4}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_42F440A46527AF1AB26E8F39ACC57E8476DE994E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89A25F2D-10A2-4CC9-B21A-9AFB58375EE4}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_42F440A46527AF1AB26E8F2474404A5A77DE994E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29A84B97-79A6-4205-8677-CDDCAEC31269}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test output data/Test_Master_availability.xlsx
+++ b/Test output data/Test_Master_availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_42F440A46527AF1AB26E8F2474404A5A77DE994E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29A84B97-79A6-4205-8677-CDDCAEC31269}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_42F440A46527AF1AB26E8F551C456BCC76DE994E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5B5E6A6-EC2A-4167-B790-801FA6E9620B}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
